--- a/results/inference/device/DeepBench_iPhone_7.xlsx
+++ b/results/inference/device/DeepBench_iPhone_7.xlsx
@@ -58,12 +58,6 @@
     <t>pad_h</t>
   </si>
   <si>
-    <t>S (filter height)</t>
-  </si>
-  <si>
-    <t>R (filter width)</t>
-  </si>
-  <si>
     <t>K  (number of filters)</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>Int8 inputs 32 bit math</t>
+  </si>
+  <si>
+    <t>R (filter height)</t>
+  </si>
+  <si>
+    <t>S (filter width)</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -675,36 +675,36 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1085,37 +1085,37 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" t="s">
         <v>32</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1423,30 +1423,30 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="C32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1464,13 +1464,13 @@
         <v>7</v>
       </c>
       <c r="O32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" t="s">
         <v>29</v>
-      </c>
-      <c r="P32" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -1508,12 +1508,12 @@
         <v>8</v>
       </c>
       <c r="O33" s="2">
-        <f>(C33-H33+1+2*K33)/M33</f>
+        <f>(C33-I33+1+2*K33)/M33</f>
+        <v>20.375</v>
+      </c>
+      <c r="P33" s="2">
+        <f>(D33-H33+1+2*J33)/L33</f>
         <v>18.5</v>
-      </c>
-      <c r="P33" s="2">
-        <f>(D33-I33+1+2*J33)/L33</f>
-        <v>26</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
@@ -1554,11 +1554,11 @@
         <v>1</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" ref="O34:O49" si="3">(C34-H34+1+2*K34)/M34</f>
+        <f t="shared" ref="O34:O49" si="3">(C34-I34+1+2*K34)/M34</f>
         <v>112</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" ref="P34:P49" si="4">(D34-I34+1+2*J34)/L34</f>
+        <f t="shared" ref="P34:P49" si="4">(D34-H34+1+2*J34)/L34</f>
         <v>112</v>
       </c>
     </row>
@@ -2349,34 +2349,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/results/inference/device/DeepBench_iPhone_7.xlsx
+++ b/results/inference/device/DeepBench_iPhone_7.xlsx
@@ -249,9 +249,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -292,7 +310,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="46">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -307,6 +325,15 @@
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -320,6 +347,15 @@
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1443,22 +1479,22 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
         <v>44</v>
       </c>
-      <c r="I32" t="s">
-        <v>45</v>
-      </c>
       <c r="J32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="K32" t="s">
-        <v>10</v>
-      </c>
       <c r="L32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" t="s">
         <v>9</v>
-      </c>
-      <c r="M32" t="s">
-        <v>8</v>
       </c>
       <c r="N32" t="s">
         <v>7</v>
@@ -1490,10 +1526,10 @@
         <v>32</v>
       </c>
       <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
         <v>20</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
       </c>
       <c r="J33">
         <v>8</v>
@@ -1501,25 +1537,24 @@
       <c r="K33">
         <v>8</v>
       </c>
-      <c r="L33" s="2">
-        <v>2</v>
-      </c>
-      <c r="M33">
+      <c r="L33">
         <v>8</v>
       </c>
+      <c r="M33" s="2">
+        <v>2</v>
+      </c>
       <c r="O33" s="2">
-        <f>(C33-I33+1+2*K33)/M33</f>
+        <f>(C33-H33+1+2*J33)/L33</f>
         <v>20.375</v>
       </c>
       <c r="P33" s="2">
-        <f>(D33-H33+1+2*J33)/L33</f>
+        <f>(D33-I33+1+2*K33)/M33</f>
         <v>18.5</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
       <c r="C34">
         <v>112</v>
       </c>
@@ -1554,17 +1589,16 @@
         <v>1</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" ref="O34:O49" si="3">(C34-I34+1+2*K34)/M34</f>
+        <f>(C34-H34+1+2*J34)/L34</f>
         <v>112</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" ref="P34:P49" si="4">(D34-H34+1+2*J34)/L34</f>
+        <f>(D34-I34+1+2*K34)/M34</f>
         <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
       <c r="C35">
         <v>56</v>
       </c>
@@ -1599,17 +1633,16 @@
         <v>1</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="3"/>
+        <f>(C35-H35+1+2*J35)/L35</f>
         <v>56</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="4"/>
+        <f>(D35-I35+1+2*K35)/M35</f>
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
       <c r="C36">
         <v>56</v>
       </c>
@@ -1644,17 +1677,16 @@
         <v>1</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="3"/>
+        <f>(C36-H36+1+2*J36)/L36</f>
         <v>56</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="4"/>
+        <f>(D36-I36+1+2*K36)/M36</f>
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
       <c r="C37">
         <v>56</v>
       </c>
@@ -1689,17 +1721,16 @@
         <v>2</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="3"/>
+        <f>(C37-H37+1+2*J37)/L37</f>
         <v>28</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="4"/>
+        <f>(D37-I37+1+2*K37)/M37</f>
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
       <c r="C38" s="1">
         <v>28</v>
       </c>
@@ -1734,17 +1765,16 @@
         <v>1</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="3"/>
+        <f>(C38-H38+1+2*J38)/L38</f>
         <v>28</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="4"/>
+        <f>(D38-I38+1+2*K38)/M38</f>
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
       <c r="C39" s="1">
         <v>28</v>
       </c>
@@ -1779,17 +1809,16 @@
         <v>1</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="3"/>
+        <f>(C39-H39+1+2*J39)/L39</f>
         <v>28</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="4"/>
+        <f>(D39-I39+1+2*K39)/M39</f>
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
       <c r="C40" s="1">
         <v>28</v>
       </c>
@@ -1824,17 +1853,16 @@
         <v>2</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="3"/>
+        <f>(C40-H40+1+2*J40)/L40</f>
         <v>14</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" si="4"/>
+        <f>(D40-I40+1+2*K40)/M40</f>
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
       <c r="C41" s="1">
         <v>14</v>
       </c>
@@ -1869,17 +1897,16 @@
         <v>1</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="3"/>
+        <f>(C41-H41+1+2*J41)/L41</f>
         <v>14</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="4"/>
+        <f>(D41-I41+1+2*K41)/M41</f>
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
       <c r="C42" s="1">
         <v>28</v>
       </c>
@@ -1914,17 +1941,16 @@
         <v>2</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="3"/>
+        <f>(C42-H42+1+2*J42)/L42</f>
         <v>14</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="4"/>
+        <f>(D42-I42+1+2*K42)/M42</f>
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
       <c r="C43" s="1">
         <v>14</v>
       </c>
@@ -1959,17 +1985,16 @@
         <v>1</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="3"/>
+        <f>(C43-H43+1+2*J43)/L43</f>
         <v>14</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="4"/>
+        <f>(D43-I43+1+2*K43)/M43</f>
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
       <c r="C44" s="1">
         <v>14</v>
       </c>
@@ -2004,17 +2029,16 @@
         <v>1</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="3"/>
+        <f>(C44-H44+1+2*J44)/L44</f>
         <v>14</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="4"/>
+        <f>(D44-I44+1+2*K44)/M44</f>
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
       <c r="C45" s="1">
         <v>14</v>
       </c>
@@ -2049,17 +2073,16 @@
         <v>2</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="3"/>
+        <f>(C45-H45+1+2*J45)/L45</f>
         <v>7</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" si="4"/>
+        <f>(D45-I45+1+2*K45)/M45</f>
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
       <c r="C46" s="1">
         <v>7</v>
       </c>
@@ -2094,17 +2117,16 @@
         <v>1</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="3"/>
+        <f>(C46-H46+1+2*J46)/L46</f>
         <v>7</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="4"/>
+        <f>(D46-I46+1+2*K46)/M46</f>
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
       <c r="C47" s="1">
         <v>7</v>
       </c>
@@ -2139,17 +2161,16 @@
         <v>1</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="3"/>
+        <f>(C47-H47+1+2*J47)/L47</f>
         <v>7</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="4"/>
+        <f>(D47-I47+1+2*K47)/M47</f>
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
       <c r="C48" s="1">
         <v>14</v>
       </c>
@@ -2184,17 +2205,16 @@
         <v>2</v>
       </c>
       <c r="O48" s="2">
-        <f t="shared" si="3"/>
+        <f>(C48-H48+1+2*J48)/L48</f>
         <v>7</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="4"/>
+        <f>(D48-I48+1+2*K48)/M48</f>
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
       <c r="C49" s="1">
         <v>7</v>
       </c>
@@ -2229,11 +2249,11 @@
         <v>1</v>
       </c>
       <c r="O49" s="2">
-        <f t="shared" si="3"/>
+        <f>(C49-H49+1+2*J49)/L49</f>
         <v>7</v>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="4"/>
+        <f>(D49-I49+1+2*K49)/M49</f>
         <v>7</v>
       </c>
     </row>

--- a/results/inference/device/DeepBench_iPhone_7.xlsx
+++ b/results/inference/device/DeepBench_iPhone_7.xlsx
@@ -688,7 +688,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1544,12 +1544,12 @@
         <v>2</v>
       </c>
       <c r="O33" s="2">
-        <f>(C33-H33+1+2*J33)/L33</f>
-        <v>20.375</v>
+        <f>1+ROUNDDOWN((($C33-$H33+2*$J33)/$L33),0)</f>
+        <v>21</v>
       </c>
       <c r="P33" s="2">
-        <f>(D33-I33+1+2*K33)/M33</f>
-        <v>18.5</v>
+        <f>1+ROUNDDOWN((($D33-$I33+2*$K33)/$M33),0)</f>
+        <v>19</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
@@ -1589,11 +1589,11 @@
         <v>1</v>
       </c>
       <c r="O34" s="2">
-        <f>(C34-H34+1+2*J34)/L34</f>
+        <f t="shared" ref="O34:O49" si="3">1+ROUNDDOWN((($C34-$H34+2*$J34)/$L34),0)</f>
         <v>112</v>
       </c>
       <c r="P34" s="2">
-        <f>(D34-I34+1+2*K34)/M34</f>
+        <f t="shared" ref="P34:P49" si="4">1+ROUNDDOWN((($D34-$I34+2*$K34)/$M34),0)</f>
         <v>112</v>
       </c>
     </row>
@@ -1633,11 +1633,11 @@
         <v>1</v>
       </c>
       <c r="O35" s="2">
-        <f>(C35-H35+1+2*J35)/L35</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="P35" s="2">
-        <f>(D35-I35+1+2*K35)/M35</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
     </row>
@@ -1677,11 +1677,11 @@
         <v>1</v>
       </c>
       <c r="O36" s="2">
-        <f>(C36-H36+1+2*J36)/L36</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="P36" s="2">
-        <f>(D36-I36+1+2*K36)/M36</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
     </row>
@@ -1721,11 +1721,11 @@
         <v>2</v>
       </c>
       <c r="O37" s="2">
-        <f>(C37-H37+1+2*J37)/L37</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="P37" s="2">
-        <f>(D37-I37+1+2*K37)/M37</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
@@ -1765,11 +1765,11 @@
         <v>1</v>
       </c>
       <c r="O38" s="2">
-        <f>(C38-H38+1+2*J38)/L38</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="P38" s="2">
-        <f>(D38-I38+1+2*K38)/M38</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
@@ -1809,11 +1809,11 @@
         <v>1</v>
       </c>
       <c r="O39" s="2">
-        <f>(C39-H39+1+2*J39)/L39</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="P39" s="2">
-        <f>(D39-I39+1+2*K39)/M39</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
@@ -1853,11 +1853,11 @@
         <v>2</v>
       </c>
       <c r="O40" s="2">
-        <f>(C40-H40+1+2*J40)/L40</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="P40" s="2">
-        <f>(D40-I40+1+2*K40)/M40</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -1897,11 +1897,11 @@
         <v>1</v>
       </c>
       <c r="O41" s="2">
-        <f>(C41-H41+1+2*J41)/L41</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="P41" s="2">
-        <f>(D41-I41+1+2*K41)/M41</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -1941,11 +1941,11 @@
         <v>2</v>
       </c>
       <c r="O42" s="2">
-        <f>(C42-H42+1+2*J42)/L42</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="P42" s="2">
-        <f>(D42-I42+1+2*K42)/M42</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -1985,11 +1985,11 @@
         <v>1</v>
       </c>
       <c r="O43" s="2">
-        <f>(C43-H43+1+2*J43)/L43</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="P43" s="2">
-        <f>(D43-I43+1+2*K43)/M43</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -2029,11 +2029,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="2">
-        <f>(C44-H44+1+2*J44)/L44</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="P44" s="2">
-        <f>(D44-I44+1+2*K44)/M44</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -2073,11 +2073,11 @@
         <v>2</v>
       </c>
       <c r="O45" s="2">
-        <f>(C45-H45+1+2*J45)/L45</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="P45" s="2">
-        <f>(D45-I45+1+2*K45)/M45</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -2117,11 +2117,11 @@
         <v>1</v>
       </c>
       <c r="O46" s="2">
-        <f>(C46-H46+1+2*J46)/L46</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="P46" s="2">
-        <f>(D46-I46+1+2*K46)/M46</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -2161,11 +2161,11 @@
         <v>1</v>
       </c>
       <c r="O47" s="2">
-        <f>(C47-H47+1+2*J47)/L47</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="P47" s="2">
-        <f>(D47-I47+1+2*K47)/M47</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -2205,11 +2205,11 @@
         <v>2</v>
       </c>
       <c r="O48" s="2">
-        <f>(C48-H48+1+2*J48)/L48</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="P48" s="2">
-        <f>(D48-I48+1+2*K48)/M48</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -2249,11 +2249,11 @@
         <v>1</v>
       </c>
       <c r="O49" s="2">
-        <f>(C49-H49+1+2*J49)/L49</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="P49" s="2">
-        <f>(D49-I49+1+2*K49)/M49</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
